--- a/testdata/OrignalProxyDataSheet.xlsx
+++ b/testdata/OrignalProxyDataSheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="46">
   <si>
     <t>TestCase</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>ScheduledAppointment_Comments</t>
+  </si>
+  <si>
+    <t>IN_V</t>
   </si>
   <si>
     <t/>
@@ -478,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +510,7 @@
     <col min="22" max="22" bestFit="true" customWidth="true" width="9.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>32</v>
       </c>
@@ -565,8 +568,11 @@
       <c r="S1" t="s" s="0">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>1</v>
       </c>
@@ -597,8 +603,11 @@
       <c r="Q2" t="s" s="0">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>2</v>
       </c>
@@ -623,8 +632,11 @@
       <c r="Q3" t="s" s="0">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>3</v>
       </c>
@@ -649,8 +661,11 @@
       <c r="Q4" t="s" s="0">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>4</v>
       </c>
@@ -675,8 +690,11 @@
       <c r="Q5" t="s" s="0">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>5</v>
       </c>
@@ -701,8 +719,11 @@
       <c r="Q6" t="s" s="0">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>6</v>
       </c>
@@ -727,8 +748,11 @@
       <c r="Q7" t="s" s="0">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>7</v>
       </c>
@@ -751,6 +775,9 @@
         <v>28</v>
       </c>
       <c r="Q8" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s" s="0">
         <v>27</v>
       </c>
     </row>
@@ -761,7 +788,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -825,10 +852,13 @@
       <c r="S1" t="s" s="0">
         <v>43</v>
       </c>
+      <c r="T1" t="s" s="0">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>5</v>
@@ -864,10 +894,15 @@
       <c r="Q2" t="s" s="0">
         <v>27</v>
       </c>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>6</v>
@@ -899,10 +934,15 @@
       <c r="Q3" t="s" s="0">
         <v>28</v>
       </c>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
@@ -934,10 +974,15 @@
       <c r="Q4" t="s" s="0">
         <v>28</v>
       </c>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>10</v>
@@ -969,10 +1014,15 @@
       <c r="Q5" t="s" s="0">
         <v>27</v>
       </c>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>11</v>
@@ -1004,6 +1054,11 @@
       <c r="Q6" t="s" s="0">
         <v>27</v>
       </c>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
